--- a/RegistryOffice_0.0.1_tsi.220210.1845+forwardings.1.xlsx
+++ b/RegistryOffice_0.0.1_tsi.220210.1845+forwardings.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heinztho\Documents\Aktuell\Projekte\140502 SDN\70 Applications\210708 RegisteryOffice\211220\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heinztho\Documents\Aktuell\Projekte\140502 SDN\70 Applications\210708 RegisteryOffice\220210\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79356B00-7003-4163-8C8D-99B56B8300ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842251AF-A0C6-4F3E-97E5-FF422FC75916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1080" windowWidth="21735" windowHeight="31305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="1215" windowWidth="21735" windowHeight="31305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="215">
   <si>
     <t>TypeApprovalCausesRequestForEmbedding</t>
   </si>
@@ -678,6 +678,9 @@
   </si>
   <si>
     <t>op-c-2302</t>
+  </si>
+  <si>
+    <t>op-c-2021</t>
   </si>
 </sst>
 </file>
@@ -874,7 +877,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1066,6 +1069,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1350,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:K393"/>
+  <dimension ref="A3:K394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D343" sqref="D343"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5926,18 +5932,18 @@
       <c r="C371" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D371" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E371" s="33" t="s">
+      <c r="D371" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E371" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="F371" s="33" t="str">
-        <f t="shared" ref="F371:F377" si="30">CONCATENATE(D371,"  ",E371)</f>
-        <v>TAR  /v1/update-client</v>
-      </c>
-      <c r="G371" s="33" t="s">
-        <v>49</v>
+      <c r="F371" s="66" t="str">
+        <f t="shared" ref="F371" si="30">CONCATENATE(D371,"  ",E371)</f>
+        <v>RO  /v1/update-client</v>
+      </c>
+      <c r="G371" s="66" t="s">
+        <v>214</v>
       </c>
       <c r="K371" s="56"/>
     </row>
@@ -5945,17 +5951,17 @@
       <c r="B372" s="19"/>
       <c r="C372" s="33"/>
       <c r="D372" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E372" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F372" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>EaTL  /v1/update-client</v>
+        <f t="shared" ref="F372:F378" si="31">CONCATENATE(D372,"  ",E372)</f>
+        <v>TAR  /v1/update-client</v>
       </c>
       <c r="G372" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K372" s="56"/>
     </row>
@@ -5963,17 +5969,17 @@
       <c r="B373" s="19"/>
       <c r="C373" s="33"/>
       <c r="D373" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E373" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F373" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>OL  /v1/update-client</v>
+        <f t="shared" si="31"/>
+        <v>EaTL  /v1/update-client</v>
       </c>
       <c r="G373" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K373" s="56"/>
     </row>
@@ -5981,17 +5987,17 @@
       <c r="B374" s="19"/>
       <c r="C374" s="33"/>
       <c r="D374" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E374" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F374" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>AA  /v1/update-client</v>
+        <f t="shared" si="31"/>
+        <v>OL  /v1/update-client</v>
       </c>
       <c r="G374" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K374" s="56"/>
     </row>
@@ -5999,17 +6005,17 @@
       <c r="B375" s="19"/>
       <c r="C375" s="33"/>
       <c r="D375" s="19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E375" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F375" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>ALT  /v1/update-client</v>
+        <f t="shared" si="31"/>
+        <v>AA  /v1/update-client</v>
       </c>
       <c r="G375" s="33" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K375" s="56"/>
     </row>
@@ -6017,17 +6023,17 @@
       <c r="B376" s="19"/>
       <c r="C376" s="33"/>
       <c r="D376" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E376" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F376" s="33" t="str">
-        <f t="shared" si="30"/>
-        <v>OKM  /v1/update-client</v>
+        <f t="shared" si="31"/>
+        <v>ALT  /v1/update-client</v>
       </c>
       <c r="G376" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K376" s="56"/>
     </row>
@@ -6035,83 +6041,86 @@
       <c r="B377" s="19"/>
       <c r="C377" s="33"/>
       <c r="D377" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E377" s="33" t="s">
         <v>37</v>
       </c>
       <c r="F377" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
+        <v>OKM  /v1/update-client</v>
+      </c>
+      <c r="G377" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="K377" s="56"/>
+    </row>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B378" s="19"/>
+      <c r="C378" s="33"/>
+      <c r="D378" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E378" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F378" s="33" t="str">
+        <f t="shared" si="31"/>
         <v>CC  /v1/update-client</v>
       </c>
-      <c r="G377" s="33" t="s">
+      <c r="G378" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K377" s="56"/>
-    </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K378" s="56"/>
     </row>
     <row r="379" spans="2:11" x14ac:dyDescent="0.25">
       <c r="K379" s="56"/>
     </row>
     <row r="380" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B380" s="51" t="s">
+      <c r="K380" s="56"/>
+    </row>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B381" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C380" s="51"/>
-      <c r="D380" s="51"/>
-      <c r="E380" s="51"/>
-      <c r="F380" s="51"/>
-      <c r="G380" s="20" t="s">
+      <c r="C381" s="51"/>
+      <c r="D381" s="51"/>
+      <c r="E381" s="51"/>
+      <c r="F381" s="51"/>
+      <c r="G381" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="K380" s="56"/>
-    </row>
-    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B381" s="52" t="s">
+      <c r="K381" s="56"/>
+    </row>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B382" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C381" s="52"/>
-      <c r="D381" s="52"/>
-      <c r="E381" s="52"/>
-      <c r="F381" s="52"/>
-      <c r="G381" s="21"/>
-      <c r="K381" s="56"/>
-    </row>
-    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B382" s="22" t="s">
+      <c r="C382" s="52"/>
+      <c r="D382" s="52"/>
+      <c r="E382" s="52"/>
+      <c r="F382" s="52"/>
+      <c r="G382" s="21"/>
+      <c r="K382" s="56"/>
+    </row>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B383" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C382" s="23"/>
-      <c r="D382" s="23"/>
-      <c r="E382" s="23"/>
-      <c r="F382" s="43" t="s">
+      <c r="C383" s="23"/>
+      <c r="D383" s="23"/>
+      <c r="E383" s="23"/>
+      <c r="F383" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G382" s="43" t="s">
+      <c r="G383" s="43" t="s">
         <v>156</v>
-      </c>
-      <c r="K382" s="56"/>
-    </row>
-    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B383" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C383" s="50"/>
-      <c r="D383" s="50"/>
-      <c r="E383" s="50"/>
-      <c r="F383" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G383" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="K383" s="56"/>
     </row>
     <row r="384" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B384" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C384" s="50"/>
       <c r="D384" s="50"/>
@@ -6125,70 +6134,67 @@
       <c r="K384" s="56"/>
     </row>
     <row r="385" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B385" s="25" t="s">
+      <c r="B385" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C385" s="50"/>
+      <c r="D385" s="50"/>
+      <c r="E385" s="50"/>
+      <c r="F385" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G385" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K385" s="56"/>
+    </row>
+    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B386" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C385" s="26"/>
-      <c r="D385" s="26"/>
-      <c r="E385" s="26"/>
-      <c r="F385" s="43" t="s">
+      <c r="C386" s="26"/>
+      <c r="D386" s="26"/>
+      <c r="E386" s="26"/>
+      <c r="F386" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G385" s="44" t="s">
+      <c r="G386" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="K385" s="56"/>
-    </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B386" s="28" t="s">
+      <c r="K386" s="56"/>
+    </row>
+    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B387" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C386" s="29"/>
-      <c r="D386" s="46"/>
-      <c r="E386" s="30"/>
-      <c r="F386" s="31" t="s">
+      <c r="C387" s="29"/>
+      <c r="D387" s="46"/>
+      <c r="E387" s="30"/>
+      <c r="F387" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="G386" s="32"/>
-      <c r="K386" s="56"/>
-    </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B387" s="19" t="s">
+      <c r="G387" s="32"/>
+      <c r="K387" s="56"/>
+    </row>
+    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B388" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C387" s="33" t="s">
+      <c r="C388" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D387" s="19" t="s">
+      <c r="D388" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="E387" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="F387" s="33" t="str">
-        <f t="shared" ref="F387:F393" si="31">CONCATENATE(D387,"  ",E387)</f>
-        <v>TAR  /v1/update-operation-client</v>
-      </c>
-      <c r="G387" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="K387" s="56"/>
-    </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B388" s="19"/>
-      <c r="C388" s="33"/>
-      <c r="D388" s="19" t="s">
-        <v>32</v>
       </c>
       <c r="E388" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F388" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>EaTL  /v1/update-operation-client</v>
+        <f t="shared" ref="F388:F394" si="32">CONCATENATE(D388,"  ",E388)</f>
+        <v>TAR  /v1/update-operation-client</v>
       </c>
       <c r="G388" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K388" s="56"/>
     </row>
@@ -6196,17 +6202,17 @@
       <c r="B389" s="19"/>
       <c r="C389" s="33"/>
       <c r="D389" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E389" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F389" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>OL  /v1/update-operation-client</v>
+        <f t="shared" si="32"/>
+        <v>EaTL  /v1/update-operation-client</v>
       </c>
       <c r="G389" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K389" s="56"/>
     </row>
@@ -6214,17 +6220,17 @@
       <c r="B390" s="19"/>
       <c r="C390" s="33"/>
       <c r="D390" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E390" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F390" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>AA  /v1/update-operation-client</v>
+        <f t="shared" si="32"/>
+        <v>OL  /v1/update-operation-client</v>
       </c>
       <c r="G390" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K390" s="56"/>
     </row>
@@ -6232,17 +6238,17 @@
       <c r="B391" s="19"/>
       <c r="C391" s="33"/>
       <c r="D391" s="19" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E391" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F391" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>ALT  /v1/update-operation-client</v>
+        <f t="shared" si="32"/>
+        <v>AA  /v1/update-operation-client</v>
       </c>
       <c r="G391" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K391" s="56"/>
     </row>
@@ -6250,17 +6256,17 @@
       <c r="B392" s="19"/>
       <c r="C392" s="33"/>
       <c r="D392" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E392" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F392" s="33" t="str">
-        <f t="shared" si="31"/>
-        <v>OKM  /v1/update-operation-client</v>
+        <f t="shared" si="32"/>
+        <v>ALT  /v1/update-operation-client</v>
       </c>
       <c r="G392" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K392" s="56"/>
     </row>
@@ -6268,19 +6274,37 @@
       <c r="B393" s="19"/>
       <c r="C393" s="33"/>
       <c r="D393" s="19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E393" s="33" t="s">
         <v>154</v>
       </c>
       <c r="F393" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
+        <v>OKM  /v1/update-operation-client</v>
+      </c>
+      <c r="G393" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="K393" s="56"/>
+    </row>
+    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B394" s="19"/>
+      <c r="C394" s="33"/>
+      <c r="D394" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E394" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="F394" s="33" t="str">
+        <f t="shared" si="32"/>
         <v>CC  /v1/update-operation-client</v>
       </c>
-      <c r="G393" s="33" t="s">
+      <c r="G394" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="K393" s="56"/>
+      <c r="K394" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -6345,7 +6369,7 @@
     <mergeCell ref="B275:F275"/>
     <mergeCell ref="B284:F284"/>
     <mergeCell ref="B285:F285"/>
-    <mergeCell ref="K293:K393"/>
+    <mergeCell ref="K293:K394"/>
     <mergeCell ref="B294:F294"/>
     <mergeCell ref="B295:F295"/>
     <mergeCell ref="B304:F304"/>
@@ -6360,10 +6384,10 @@
     <mergeCell ref="B365:F365"/>
     <mergeCell ref="B367:E367"/>
     <mergeCell ref="B368:E368"/>
-    <mergeCell ref="B380:F380"/>
     <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B383:E383"/>
+    <mergeCell ref="B382:F382"/>
     <mergeCell ref="B384:E384"/>
+    <mergeCell ref="B385:E385"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
